--- a/DCIT 55 - CS 3B/Attendance Sheet - CS 3B.xlsx
+++ b/DCIT 55 - CS 3B/Attendance Sheet - CS 3B.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="98">
   <si>
     <t>SURNAME</t>
   </si>
@@ -789,6 +789,33 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -830,36 +857,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -921,6 +918,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -929,33 +929,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -991,6 +964,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1596,7 +1596,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1616,7 +1616,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1661,14 +1661,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -1912,7 +1912,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1932,7 +1932,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -1977,14 +1977,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2238,14 +2238,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2489,7 +2489,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2509,7 +2509,7 @@
         <a:noFill/>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -2554,14 +2554,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2815,14 +2815,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3295,7 +3295,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3332,97 +3332,97 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="35"/>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="28" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="38"/>
     </row>
     <row r="9" spans="1:11" s="10" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="31" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="22"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="31"/>
     </row>
     <row r="10" spans="1:11" s="10" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="32" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="23"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:11" ht="15" thickBot="1"/>
     <row r="12" spans="1:11" s="5" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="39" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="36"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="38"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="42"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -5576,12 +5576,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I10:J10"/>
@@ -5593,6 +5587,12 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C9:F9"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="91" orientation="portrait" r:id="rId1"/>
@@ -5635,121 +5635,121 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-      <c r="O7" s="26"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="35"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45" t="s">
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="46"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="44"/>
+      <c r="M8" s="44"/>
+      <c r="N8" s="44"/>
+      <c r="O8" s="45"/>
     </row>
     <row r="9" spans="1:15" s="10" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="49" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="47" t="s">
+      <c r="H9" s="49"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="47"/>
-      <c r="N9" s="59"/>
-      <c r="O9" s="60"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:15" s="10" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="62"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="61"/>
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1"/>
     <row r="12" spans="1:15" s="5" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="39" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="39" t="s">
+      <c r="D12" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="36"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="22"/>
     </row>
     <row r="13" spans="1:15" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="38"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="42"/>
+      <c r="A13" s="24"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="28"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
@@ -8028,6 +8028,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="F12:O12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A7:O7"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="I8:O8"/>
@@ -8037,14 +8045,6 @@
     <mergeCell ref="N9:O10"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="F12:O12"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.31496062992125984" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
@@ -8100,87 +8100,87 @@
       <c r="O2" s="66"/>
     </row>
     <row r="3" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="43">
+      <c r="B3" s="40"/>
+      <c r="C3" s="63">
         <f>' lec LANDSCAPE P.1'!C9:F9</f>
         <v>0</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="49" t="s">
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="47" t="s">
+      <c r="H3" s="49"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="47"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="60"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="59"/>
     </row>
     <row r="4" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="63">
+      <c r="B4" s="41"/>
+      <c r="C4" s="62">
         <f>' lec LANDSCAPE P.1'!C10:F10</f>
         <v>0</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="61"/>
     </row>
     <row r="5" spans="1:15" ht="9" customHeight="1" thickBot="1"/>
     <row r="6" spans="1:15" s="5" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="37"/>
-      <c r="B6" s="39" t="s">
+      <c r="A6" s="23"/>
+      <c r="B6" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="41" t="s">
+      <c r="E6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="36"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="22"/>
     </row>
     <row r="7" spans="1:15" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A7" s="38"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="40"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="42"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
@@ -10649,6 +10649,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="F6:O6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -10658,12 +10664,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="I3:K4"/>
     <mergeCell ref="C4:F4"/>
-    <mergeCell ref="F6:O6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.23622047244094491" top="0.51181102362204722" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
@@ -10678,8 +10678,8 @@
   </sheetPr>
   <dimension ref="A3:O184"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:O13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10707,130 +10707,130 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="23.25" customHeight="1" thickBot="1">
-      <c r="A7" s="76" t="s">
+      <c r="A7" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="78"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="69"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80" t="s">
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="81"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="72"/>
     </row>
     <row r="9" spans="1:15" s="10" customFormat="1" ht="22.5" customHeight="1">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="43" t="s">
+      <c r="B9" s="40"/>
+      <c r="C9" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="49" t="s">
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="47" t="s">
+      <c r="H9" s="49"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="75"/>
+      <c r="L9" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="47"/>
-      <c r="N9" s="59" t="s">
+      <c r="M9" s="46"/>
+      <c r="N9" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="O9" s="60"/>
+      <c r="O9" s="59"/>
     </row>
     <row r="10" spans="1:15" s="10" customFormat="1" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="63" t="s">
+      <c r="B10" s="41"/>
+      <c r="C10" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="78"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="61"/>
     </row>
     <row r="11" spans="1:15" ht="15" thickBot="1"/>
     <row r="12" spans="1:15" s="5" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A12" s="72"/>
-      <c r="B12" s="67" t="s">
+      <c r="A12" s="84"/>
+      <c r="B12" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="67" t="s">
+      <c r="D12" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="74" t="s">
+      <c r="E12" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="67" t="s">
+      <c r="F12" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="69" t="s">
+      <c r="G12" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="71"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="82"/>
+      <c r="K12" s="82"/>
+      <c r="L12" s="82"/>
+      <c r="M12" s="82"/>
+      <c r="N12" s="82"/>
+      <c r="O12" s="83"/>
     </row>
     <row r="13" spans="1:15" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A13" s="73"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="68"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="16" t="s">
         <v>89</v>
       </c>
@@ -10883,7 +10883,9 @@
       <c r="K14" s="9"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
+      <c r="N14" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="O14" s="15"/>
     </row>
     <row r="15" spans="1:15" ht="18" customHeight="1">
@@ -10910,7 +10912,9 @@
       <c r="K15" s="7"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
+      <c r="N15" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="O15" s="14"/>
     </row>
     <row r="16" spans="1:15" ht="18" customHeight="1">
@@ -10937,7 +10941,9 @@
       <c r="K16" s="7"/>
       <c r="L16" s="14"/>
       <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
+      <c r="N16" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="O16" s="14"/>
     </row>
     <row r="17" spans="1:15" ht="18" customHeight="1">
@@ -10964,7 +10970,9 @@
       <c r="K17" s="7"/>
       <c r="L17" s="14"/>
       <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
+      <c r="N17" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="O17" s="14"/>
     </row>
     <row r="18" spans="1:15" ht="18" customHeight="1">
@@ -10991,7 +10999,9 @@
       <c r="K18" s="7"/>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
+      <c r="N18" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="O18" s="14"/>
     </row>
     <row r="19" spans="1:15" ht="18" customHeight="1">
@@ -11018,7 +11028,9 @@
       <c r="K19" s="7"/>
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
+      <c r="N19" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="O19" s="14"/>
     </row>
     <row r="20" spans="1:15" ht="18" customHeight="1">
@@ -11045,7 +11057,9 @@
       <c r="K20" s="7"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="N20" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="O20" s="14"/>
     </row>
     <row r="21" spans="1:15" ht="18" customHeight="1">
@@ -11072,7 +11086,9 @@
       <c r="K21" s="7"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
+      <c r="N21" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="O21" s="14"/>
     </row>
     <row r="22" spans="1:15" ht="18" customHeight="1">
@@ -11099,7 +11115,9 @@
       <c r="K22" s="7"/>
       <c r="L22" s="14"/>
       <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
+      <c r="N22" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="O22" s="14"/>
     </row>
     <row r="23" spans="1:15" ht="18" customHeight="1">
@@ -11126,7 +11144,9 @@
       <c r="K23" s="7"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
+      <c r="N23" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="O23" s="14"/>
     </row>
     <row r="24" spans="1:15" ht="18" customHeight="1">
@@ -11153,7 +11173,9 @@
       <c r="K24" s="7"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
+      <c r="N24" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="O24" s="14"/>
     </row>
     <row r="25" spans="1:15" ht="18" customHeight="1">
@@ -11180,7 +11202,9 @@
       <c r="K25" s="7"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
+      <c r="N25" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="O25" s="14"/>
     </row>
     <row r="26" spans="1:15" ht="18" customHeight="1">
@@ -11207,7 +11231,9 @@
       <c r="K26" s="7"/>
       <c r="L26" s="14"/>
       <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
+      <c r="N26" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="O26" s="14"/>
     </row>
     <row r="27" spans="1:15" ht="18" customHeight="1">
@@ -11234,7 +11260,9 @@
       <c r="K27" s="7"/>
       <c r="L27" s="14"/>
       <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
+      <c r="N27" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="O27" s="14"/>
     </row>
     <row r="28" spans="1:15" ht="18" customHeight="1">
@@ -11261,7 +11289,9 @@
       <c r="K28" s="7"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
+      <c r="N28" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="O28" s="14"/>
     </row>
     <row r="29" spans="1:15" ht="18" customHeight="1">
@@ -11288,7 +11318,9 @@
       <c r="K29" s="7"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
+      <c r="N29" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="O29" s="14"/>
     </row>
     <row r="30" spans="1:15" ht="18" customHeight="1">
@@ -11315,7 +11347,9 @@
       <c r="K30" s="7"/>
       <c r="L30" s="14"/>
       <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
+      <c r="N30" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="O30" s="14"/>
     </row>
     <row r="31" spans="1:15" ht="18" customHeight="1">
@@ -11342,7 +11376,9 @@
       <c r="K31" s="7"/>
       <c r="L31" s="14"/>
       <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
+      <c r="N31" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="O31" s="14"/>
     </row>
     <row r="32" spans="1:15" ht="18" customHeight="1">
@@ -11369,7 +11405,9 @@
       <c r="K32" s="7"/>
       <c r="L32" s="14"/>
       <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
+      <c r="N32" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="O32" s="14"/>
     </row>
     <row r="33" spans="1:15" ht="18" customHeight="1">
@@ -11396,7 +11434,9 @@
       <c r="K33" s="7"/>
       <c r="L33" s="14"/>
       <c r="M33" s="14"/>
-      <c r="N33" s="14"/>
+      <c r="N33" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="O33" s="14"/>
     </row>
     <row r="34" spans="1:15" ht="18" customHeight="1">
@@ -13286,6 +13326,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:O12"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="A7:O7"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="I8:O8"/>
@@ -13297,13 +13344,6 @@
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="I9:K10"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:O12"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <conditionalFormatting sqref="B31">
     <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
@@ -13620,50 +13660,50 @@
       <c r="O2" s="90"/>
     </row>
     <row r="3" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="43" t="str">
+      <c r="B3" s="40"/>
+      <c r="C3" s="63" t="str">
         <f>'lab LANDSCAPE P.1'!C9:F9</f>
         <v>DCIT 55 Operating System</v>
       </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="49" t="s">
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="50"/>
+      <c r="H3" s="49"/>
       <c r="I3" s="95"/>
       <c r="J3" s="96"/>
       <c r="K3" s="97"/>
-      <c r="L3" s="47" t="s">
+      <c r="L3" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="47"/>
+      <c r="M3" s="46"/>
       <c r="N3" s="91"/>
       <c r="O3" s="92"/>
     </row>
     <row r="4" spans="1:15" s="10" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="63" t="str">
+      <c r="B4" s="41"/>
+      <c r="C4" s="62" t="str">
         <f>'lab LANDSCAPE P.1'!C10:F10</f>
         <v>GIMEL C. CONTILLO</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="52"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="98"/>
       <c r="J4" s="99"/>
       <c r="K4" s="100"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="93"/>
       <c r="O4" s="94"/>
     </row>
@@ -13671,41 +13711,41 @@
       <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:15" s="5" customFormat="1" ht="12" customHeight="1" thickBot="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="67" t="s">
+      <c r="A6" s="84"/>
+      <c r="B6" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="74" t="s">
+      <c r="E6" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="69" t="s">
+      <c r="G6" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="71"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="83"/>
     </row>
     <row r="7" spans="1:15" s="5" customFormat="1" ht="20.25" customHeight="1" thickBot="1">
-      <c r="A7" s="73"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="68"/>
+      <c r="A7" s="85"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16"/>
@@ -16173,6 +16213,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:O6"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:F3"/>
@@ -16182,13 +16229,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:F4"/>
     <mergeCell ref="I3:K4"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:O6"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.51181102362204722" right="0.23622047244094491" top="0.51181102362204722" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" r:id="rId1"/>
